--- a/documentation/LivrablesP5/ganttPrevi.xlsx
+++ b/documentation/LivrablesP5/ganttPrevi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faust\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\html\ProjetDMX\documentation\LivrablesP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0349340-1884-4C0D-A014-3FBD71E27936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -291,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
@@ -749,24 +748,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="16" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="17" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="17" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,532 +769,54 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="16" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="17" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="17" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Activity" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Actual legend" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Excel Built-in Heading 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Excel Built-in Heading 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Excel Built-in Title" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Label" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="% complete" xfId="1"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="2"/>
+    <cellStyle name="Activity" xfId="3"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="4"/>
+    <cellStyle name="Actual legend" xfId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="15"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="14"/>
+    <cellStyle name="Excel Built-in Heading 2" xfId="16"/>
+    <cellStyle name="Excel Built-in Heading 3" xfId="17"/>
+    <cellStyle name="Excel Built-in Heading 4" xfId="18"/>
+    <cellStyle name="Excel Built-in Title" xfId="13"/>
+    <cellStyle name="Label" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent Complete" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="7"/>
+    <cellStyle name="Period Headers" xfId="8"/>
+    <cellStyle name="Period Highlight Control" xfId="9"/>
+    <cellStyle name="Period Value" xfId="10"/>
+    <cellStyle name="Plan legend" xfId="11"/>
+    <cellStyle name="Project Headers" xfId="12"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59987182226020086"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="9" tint="0.59987182226020086"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59987182226020086"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="9" tint="0.59987182226020086"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59987182226020086"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="9" tint="0.59987182226020086"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59987182226020086"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="9" tint="0.59987182226020086"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1840,29 +1343,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF735773"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:HC338"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DC25" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F6" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="5" width="2.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="20.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="3" customWidth="1"/>
-    <col min="12" max="31" width="4.33203125" style="2" customWidth="1"/>
-    <col min="32" max="211" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="10" width="20.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="3" customWidth="1"/>
+    <col min="12" max="31" width="4.375" style="2" customWidth="1"/>
+    <col min="32" max="211" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.8">
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1874,43 +1377,43 @@
       <c r="N1" s="19">
         <v>1</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="47"/>
+      <c r="P1" s="40"/>
       <c r="R1" s="20">
         <v>2</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
       <c r="V1" s="21">
         <v>3</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
       <c r="Z1" s="22">
         <v>4</v>
       </c>
-      <c r="AA1" s="46" t="s">
+      <c r="AA1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-    </row>
-    <row r="2" spans="1:211" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+    </row>
+    <row r="2" spans="1:211" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1918,66 +1421,66 @@
         <v>1</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
       <c r="AD2" s="11"/>
-      <c r="AE2" s="38" t="s">
+      <c r="AE2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-    </row>
-    <row r="3" spans="1:211" s="13" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="34" t="s">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+    </row>
+    <row r="3" spans="1:211" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="14" t="s">
@@ -2003,13 +1506,13 @@
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
     </row>
-    <row r="4" spans="1:211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+    <row r="4" spans="1:211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="17">
         <v>1</v>
       </c>
@@ -2611,7 +2114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -2726,27 +2229,27 @@
       <c r="HB5" s="2"/>
       <c r="HC5" s="2"/>
     </row>
-    <row r="6" spans="1:211" s="39" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+    <row r="6" spans="1:211" s="33" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="38">
         <v>1</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="38">
         <v>1</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="38">
         <v>1</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="38">
         <v>1</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="39">
         <v>0.25</v>
       </c>
       <c r="L6" s="16"/>
@@ -2860,7 +2363,7 @@
       <c r="HB6" s="16"/>
       <c r="HC6" s="16"/>
     </row>
-    <row r="7" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
@@ -2974,7 +2477,7 @@
       <c r="HB7" s="2"/>
       <c r="HC7" s="2"/>
     </row>
-    <row r="8" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -3088,7 +2591,7 @@
       <c r="HB8" s="2"/>
       <c r="HC8" s="2"/>
     </row>
-    <row r="9" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
@@ -3202,7 +2705,7 @@
       <c r="HB9" s="2"/>
       <c r="HC9" s="2"/>
     </row>
-    <row r="10" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
@@ -3316,7 +2819,7 @@
       <c r="HB10" s="2"/>
       <c r="HC10" s="2"/>
     </row>
-    <row r="11" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
@@ -3430,7 +2933,7 @@
       <c r="HB11" s="2"/>
       <c r="HC11" s="2"/>
     </row>
-    <row r="12" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -3544,7 +3047,7 @@
       <c r="HB12" s="2"/>
       <c r="HC12" s="2"/>
     </row>
-    <row r="13" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -3658,7 +3161,7 @@
       <c r="HB13" s="2"/>
       <c r="HC13" s="2"/>
     </row>
-    <row r="14" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -3772,7 +3275,7 @@
       <c r="HB14" s="2"/>
       <c r="HC14" s="2"/>
     </row>
-    <row r="15" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -3886,7 +3389,7 @@
       <c r="HB15" s="2"/>
       <c r="HC15" s="2"/>
     </row>
-    <row r="16" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -4000,7 +3503,7 @@
       <c r="HB16" s="2"/>
       <c r="HC16" s="2"/>
     </row>
-    <row r="17" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -4114,7 +3617,7 @@
       <c r="HB17" s="2"/>
       <c r="HC17" s="2"/>
     </row>
-    <row r="18" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -4228,7 +3731,7 @@
       <c r="HB18" s="2"/>
       <c r="HC18" s="2"/>
     </row>
-    <row r="19" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -4342,7 +3845,7 @@
       <c r="HB19" s="2"/>
       <c r="HC19" s="2"/>
     </row>
-    <row r="20" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -4456,7 +3959,7 @@
       <c r="HB20" s="2"/>
       <c r="HC20" s="2"/>
     </row>
-    <row r="21" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -4570,8 +4073,8 @@
       <c r="HB21" s="2"/>
       <c r="HC21" s="2"/>
     </row>
-    <row r="22" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="48" t="s">
+    <row r="22" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="41" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="30"/>
@@ -4670,7 +4173,7 @@
       <c r="HB22" s="2"/>
       <c r="HC22" s="2"/>
     </row>
-    <row r="23" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="F23" s="32" t="s">
         <v>46</v>
@@ -4781,7 +4284,7 @@
       <c r="HB23" s="2"/>
       <c r="HC23" s="2"/>
     </row>
-    <row r="24" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="F24" s="32" t="s">
         <v>47</v>
@@ -4892,7 +4395,7 @@
       <c r="HB24" s="2"/>
       <c r="HC24" s="2"/>
     </row>
-    <row r="25" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="F25" s="32" t="s">
         <v>48</v>
@@ -5003,7 +4506,7 @@
       <c r="HB25" s="2"/>
       <c r="HC25" s="2"/>
     </row>
-    <row r="26" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="F26" s="32" t="s">
         <v>49</v>
@@ -5114,7 +4617,7 @@
       <c r="HB26" s="2"/>
       <c r="HC26" s="2"/>
     </row>
-    <row r="27" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="F27" s="32" t="s">
         <v>50</v>
@@ -5225,7 +4728,7 @@
       <c r="HB27" s="2"/>
       <c r="HC27" s="2"/>
     </row>
-    <row r="28" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="F28" s="32" t="s">
         <v>51</v>
@@ -5336,7 +4839,7 @@
       <c r="HB28" s="2"/>
       <c r="HC28" s="2"/>
     </row>
-    <row r="29" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="F29" s="32" t="s">
         <v>52</v>
@@ -5447,7 +4950,7 @@
       <c r="HB29" s="2"/>
       <c r="HC29" s="2"/>
     </row>
-    <row r="30" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="F30" s="32" t="s">
         <v>53</v>
@@ -5558,7 +5061,7 @@
       <c r="HB30" s="2"/>
       <c r="HC30" s="2"/>
     </row>
-    <row r="31" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="F31" s="32" t="s">
         <v>54</v>
@@ -5669,7 +5172,7 @@
       <c r="HB31" s="2"/>
       <c r="HC31" s="2"/>
     </row>
-    <row r="32" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="21"/>
       <c r="F32" s="32" t="s">
         <v>55</v>
@@ -5780,7 +5283,7 @@
       <c r="HB32" s="2"/>
       <c r="HC32" s="2"/>
     </row>
-    <row r="33" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="21"/>
       <c r="F33" s="32" t="s">
         <v>56</v>
@@ -5891,7 +5394,7 @@
       <c r="HB33" s="2"/>
       <c r="HC33" s="2"/>
     </row>
-    <row r="34" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="21"/>
       <c r="F34" s="32" t="s">
         <v>57</v>
@@ -6002,7 +5505,7 @@
       <c r="HB34" s="2"/>
       <c r="HC34" s="2"/>
     </row>
-    <row r="35" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="22"/>
       <c r="F35" s="32" t="s">
         <v>34</v>
@@ -6113,7 +5616,7 @@
       <c r="HB35" s="2"/>
       <c r="HC35" s="2"/>
     </row>
-    <row r="36" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="22"/>
       <c r="F36" s="32" t="s">
         <v>35</v>
@@ -6224,7 +5727,7 @@
       <c r="HB36" s="2"/>
       <c r="HC36" s="2"/>
     </row>
-    <row r="37" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="22"/>
       <c r="F37" s="32" t="s">
         <v>36</v>
@@ -6335,7 +5838,7 @@
       <c r="HB37" s="2"/>
       <c r="HC37" s="2"/>
     </row>
-    <row r="38" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="22"/>
       <c r="F38" s="32" t="s">
         <v>37</v>
@@ -6446,7 +5949,7 @@
       <c r="HB38" s="2"/>
       <c r="HC38" s="2"/>
     </row>
-    <row r="39" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="22"/>
       <c r="F39" s="32" t="s">
         <v>38</v>
@@ -6557,7 +6060,7 @@
       <c r="HB39" s="2"/>
       <c r="HC39" s="2"/>
     </row>
-    <row r="40" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="22"/>
       <c r="F40" s="32" t="s">
         <v>39</v>
@@ -6668,7 +6171,7 @@
       <c r="HB40" s="2"/>
       <c r="HC40" s="2"/>
     </row>
-    <row r="41" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E41" s="22"/>
       <c r="F41" s="32" t="s">
         <v>40</v>
@@ -6779,7 +6282,7 @@
       <c r="HB41" s="2"/>
       <c r="HC41" s="2"/>
     </row>
-    <row r="42" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="22"/>
       <c r="F42" s="32" t="s">
         <v>41</v>
@@ -6890,7 +6393,7 @@
       <c r="HB42" s="2"/>
       <c r="HC42" s="2"/>
     </row>
-    <row r="43" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:211" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="26"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -7004,7 +6507,7 @@
       <c r="HB43" s="2"/>
       <c r="HC43" s="2"/>
     </row>
-    <row r="44" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="27"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
@@ -7073,7 +6576,7 @@
       <c r="GF44" s="2"/>
       <c r="GG44" s="2"/>
     </row>
-    <row r="45" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="27"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -7142,7 +6645,7 @@
       <c r="GF45" s="2"/>
       <c r="GG45" s="2"/>
     </row>
-    <row r="46" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="27"/>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
@@ -7211,7 +6714,7 @@
       <c r="GF46" s="2"/>
       <c r="GG46" s="2"/>
     </row>
-    <row r="47" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="27"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -7280,7 +6783,7 @@
       <c r="GF47" s="2"/>
       <c r="GG47" s="2"/>
     </row>
-    <row r="48" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:211" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="27"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -7347,7 +6850,7 @@
       <c r="GF48" s="2"/>
       <c r="GG48" s="2"/>
     </row>
-    <row r="49" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="27"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -7414,7 +6917,7 @@
       <c r="GF49" s="2"/>
       <c r="GG49" s="2"/>
     </row>
-    <row r="50" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -7471,7 +6974,7 @@
       <c r="GF50" s="2"/>
       <c r="GG50" s="2"/>
     </row>
-    <row r="51" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="27"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
@@ -7518,7 +7021,7 @@
       <c r="GF51" s="2"/>
       <c r="GG51" s="2"/>
     </row>
-    <row r="52" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="27"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -7565,7 +7068,7 @@
       <c r="GF52" s="2"/>
       <c r="GG52" s="2"/>
     </row>
-    <row r="53" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="27"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
@@ -7612,7 +7115,7 @@
       <c r="GF53" s="2"/>
       <c r="GG53" s="2"/>
     </row>
-    <row r="54" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="27"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
@@ -7659,7 +7162,7 @@
       <c r="GF54" s="2"/>
       <c r="GG54" s="2"/>
     </row>
-    <row r="55" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="27"/>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
@@ -7706,7 +7209,7 @@
       <c r="GF55" s="2"/>
       <c r="GG55" s="2"/>
     </row>
-    <row r="56" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="27"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
@@ -7753,7 +7256,7 @@
       <c r="GF56" s="2"/>
       <c r="GG56" s="2"/>
     </row>
-    <row r="57" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="27"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
@@ -7800,7 +7303,7 @@
       <c r="GF57" s="2"/>
       <c r="GG57" s="2"/>
     </row>
-    <row r="58" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="27"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
@@ -7847,7 +7350,7 @@
       <c r="GF58" s="2"/>
       <c r="GG58" s="2"/>
     </row>
-    <row r="59" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
@@ -7895,7 +7398,7 @@
       <c r="GF59" s="2"/>
       <c r="GG59" s="2"/>
     </row>
-    <row r="60" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="27"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
@@ -7933,7 +7436,7 @@
       <c r="GF60" s="2"/>
       <c r="GG60" s="2"/>
     </row>
-    <row r="61" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="27"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
@@ -7969,7 +7472,7 @@
       <c r="GF61" s="2"/>
       <c r="GG61" s="2"/>
     </row>
-    <row r="62" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="27"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
@@ -8005,7 +7508,7 @@
       <c r="GF62" s="2"/>
       <c r="GG62" s="2"/>
     </row>
-    <row r="63" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="27"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
@@ -8039,7 +7542,7 @@
       <c r="GF63" s="2"/>
       <c r="GG63" s="2"/>
     </row>
-    <row r="64" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="27"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
@@ -8073,7 +7576,7 @@
       <c r="GF64" s="2"/>
       <c r="GG64" s="2"/>
     </row>
-    <row r="65" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
@@ -8107,7 +7610,7 @@
       <c r="GF65" s="2"/>
       <c r="GG65" s="2"/>
     </row>
-    <row r="66" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
@@ -8141,7 +7644,7 @@
       <c r="GF66" s="2"/>
       <c r="GG66" s="2"/>
     </row>
-    <row r="67" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="27"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
@@ -8175,7 +7678,7 @@
       <c r="GF67" s="2"/>
       <c r="GG67" s="2"/>
     </row>
-    <row r="68" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="27"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
@@ -8209,7 +7712,7 @@
       <c r="GF68" s="2"/>
       <c r="GG68" s="2"/>
     </row>
-    <row r="69" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="27"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
@@ -8243,7 +7746,7 @@
       <c r="GF69" s="2"/>
       <c r="GG69" s="2"/>
     </row>
-    <row r="70" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="27"/>
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
@@ -8277,7 +7780,7 @@
       <c r="GF70" s="2"/>
       <c r="GG70" s="2"/>
     </row>
-    <row r="71" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="27"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
@@ -8311,7 +7814,7 @@
       <c r="GF71" s="2"/>
       <c r="GG71" s="2"/>
     </row>
-    <row r="72" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="27"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
@@ -8345,7 +7848,7 @@
       <c r="GF72" s="2"/>
       <c r="GG72" s="2"/>
     </row>
-    <row r="73" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="27"/>
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
@@ -8379,7 +7882,7 @@
       <c r="GF73" s="2"/>
       <c r="GG73" s="2"/>
     </row>
-    <row r="74" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="27"/>
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
@@ -8415,7 +7918,7 @@
       <c r="GF74" s="2"/>
       <c r="GG74" s="2"/>
     </row>
-    <row r="75" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="27"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
@@ -8449,7 +7952,7 @@
       <c r="GF75" s="2"/>
       <c r="GG75" s="2"/>
     </row>
-    <row r="76" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="27"/>
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
@@ -8483,7 +7986,7 @@
       <c r="GF76" s="2"/>
       <c r="GG76" s="2"/>
     </row>
-    <row r="77" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="27"/>
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
@@ -8528,7 +8031,7 @@
       <c r="GF77" s="2"/>
       <c r="GG77" s="2"/>
     </row>
-    <row r="78" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="27"/>
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
@@ -8571,7 +8074,7 @@
       <c r="GF78" s="2"/>
       <c r="GG78" s="2"/>
     </row>
-    <row r="79" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="27"/>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
@@ -8616,7 +8119,7 @@
       <c r="GF79" s="2"/>
       <c r="GG79" s="2"/>
     </row>
-    <row r="80" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="27"/>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
@@ -8657,7 +8160,7 @@
       <c r="GF80" s="2"/>
       <c r="GG80" s="2"/>
     </row>
-    <row r="81" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="27"/>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -8698,7 +8201,7 @@
       <c r="GF81" s="2"/>
       <c r="GG81" s="2"/>
     </row>
-    <row r="82" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="27"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -8739,7 +8242,7 @@
       <c r="GF82" s="2"/>
       <c r="GG82" s="2"/>
     </row>
-    <row r="83" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="27"/>
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
@@ -8780,7 +8283,7 @@
       <c r="GF83" s="2"/>
       <c r="GG83" s="2"/>
     </row>
-    <row r="84" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="27"/>
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
@@ -8826,7 +8329,7 @@
       <c r="GF84" s="2"/>
       <c r="GG84" s="2"/>
     </row>
-    <row r="85" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" s="27"/>
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
@@ -8871,7 +8374,7 @@
       <c r="GF85" s="2"/>
       <c r="GG85" s="2"/>
     </row>
-    <row r="86" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="27"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
@@ -8916,7 +8419,7 @@
       <c r="GF86" s="2"/>
       <c r="GG86" s="2"/>
     </row>
-    <row r="87" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87" s="27"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
@@ -8961,7 +8464,7 @@
       <c r="GF87" s="2"/>
       <c r="GG87" s="2"/>
     </row>
-    <row r="88" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="27"/>
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
@@ -9008,7 +8511,7 @@
       <c r="GF88" s="2"/>
       <c r="GG88" s="2"/>
     </row>
-    <row r="89" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" s="27"/>
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
@@ -9054,7 +8557,7 @@
       <c r="GF89" s="2"/>
       <c r="GG89" s="2"/>
     </row>
-    <row r="90" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" s="27"/>
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
@@ -9100,7 +8603,7 @@
       <c r="GF90" s="2"/>
       <c r="GG90" s="2"/>
     </row>
-    <row r="91" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="27"/>
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
@@ -9148,7 +8651,7 @@
       <c r="GF91" s="2"/>
       <c r="GG91" s="2"/>
     </row>
-    <row r="92" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="27"/>
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
@@ -9194,7 +8697,7 @@
       <c r="GF92" s="2"/>
       <c r="GG92" s="2"/>
     </row>
-    <row r="93" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="27"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -9239,7 +8742,7 @@
       <c r="GF93" s="2"/>
       <c r="GG93" s="2"/>
     </row>
-    <row r="94" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="27"/>
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
@@ -9285,7 +8788,7 @@
       <c r="GF94" s="2"/>
       <c r="GG94" s="2"/>
     </row>
-    <row r="95" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="27"/>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
@@ -9332,7 +8835,7 @@
       <c r="GF95" s="2"/>
       <c r="GG95" s="2"/>
     </row>
-    <row r="96" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="27"/>
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
@@ -9379,7 +8882,7 @@
       <c r="GF96" s="2"/>
       <c r="GG96" s="2"/>
     </row>
-    <row r="97" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="27"/>
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
@@ -9424,7 +8927,7 @@
       <c r="GF97" s="2"/>
       <c r="GG97" s="2"/>
     </row>
-    <row r="98" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="27"/>
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
@@ -9468,7 +8971,7 @@
       <c r="GF98" s="2"/>
       <c r="GG98" s="2"/>
     </row>
-    <row r="99" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="27"/>
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
@@ -9513,7 +9016,7 @@
       <c r="GF99" s="2"/>
       <c r="GG99" s="2"/>
     </row>
-    <row r="100" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="27"/>
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
@@ -9558,7 +9061,7 @@
       <c r="FY100" s="2"/>
       <c r="FZ100" s="2"/>
     </row>
-    <row r="101" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="27"/>
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
@@ -9607,7 +9110,7 @@
       <c r="FQ101" s="2"/>
       <c r="FR101" s="2"/>
     </row>
-    <row r="102" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="27"/>
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
@@ -9655,7 +9158,7 @@
       <c r="FQ102" s="2"/>
       <c r="FR102" s="2"/>
     </row>
-    <row r="103" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="27"/>
       <c r="G103" s="28"/>
       <c r="H103" s="28"/>
@@ -9703,7 +9206,7 @@
       <c r="FQ103" s="2"/>
       <c r="FR103" s="2"/>
     </row>
-    <row r="104" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:189" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="27"/>
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
@@ -9751,7 +9254,7 @@
       <c r="FQ104" s="2"/>
       <c r="FR104" s="2"/>
     </row>
-    <row r="105" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:189" x14ac:dyDescent="0.3">
       <c r="H105" s="28"/>
       <c r="I105" s="29"/>
       <c r="L105"/>
@@ -9796,732 +9299,732 @@
       <c r="FQ105" s="2"/>
       <c r="FR105" s="2"/>
     </row>
-    <row r="106" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:189" x14ac:dyDescent="0.3">
       <c r="L106" s="3"/>
       <c r="O106"/>
       <c r="Q106"/>
       <c r="AF106" s="2"/>
       <c r="AG106" s="2"/>
     </row>
-    <row r="107" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:189" x14ac:dyDescent="0.3">
       <c r="L107" s="3"/>
       <c r="O107"/>
       <c r="Q107"/>
       <c r="AF107" s="2"/>
       <c r="AG107" s="2"/>
     </row>
-    <row r="108" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:189" x14ac:dyDescent="0.3">
       <c r="L108" s="3"/>
       <c r="O108"/>
       <c r="Q108"/>
       <c r="AF108" s="2"/>
       <c r="AG108" s="2"/>
     </row>
-    <row r="109" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:189" x14ac:dyDescent="0.3">
       <c r="L109" s="3"/>
       <c r="O109"/>
       <c r="Q109"/>
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
     </row>
-    <row r="110" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:189" x14ac:dyDescent="0.3">
       <c r="O110"/>
       <c r="Q110"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:189" x14ac:dyDescent="0.3">
       <c r="O111"/>
       <c r="Q111"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="6:189" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:189" x14ac:dyDescent="0.3">
       <c r="O112"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="113" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O113"/>
       <c r="Q113"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="114" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O114"/>
       <c r="Q114"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="115" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O115"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="116" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O116"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="117" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="118" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O118"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="119" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O119"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="120" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="121" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="122" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="123" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="124" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="125" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="126" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="127" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="15:32" x14ac:dyDescent="0.35">
+    <row r="128" spans="15:32" x14ac:dyDescent="0.3">
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="129" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="130" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="131" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="132" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="133" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="134" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="135" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="136" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="137" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="138" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="139" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="140" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="141" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="142" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="143" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="144" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="145" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="146" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="147" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="148" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="149" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="150" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="151" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="152" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="153" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="154" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="155" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="156" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="157" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="158" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="159" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="160" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="161" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="162" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="163" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="164" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="165" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="166" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="167" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="168" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="169" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="170" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="171" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="172" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="173" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="174" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="175" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="176" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="177" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="178" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="179" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="180" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="181" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="182" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="183" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="184" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="185" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="186" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="187" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="188" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="189" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="190" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="191" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="192" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="193" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="194" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="195" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="196" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="197" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="198" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="199" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="200" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="201" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="202" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="203" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="204" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="205" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="206" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="207" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="208" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="209" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="210" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="211" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="212" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="213" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="214" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="215" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="216" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="217" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="218" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="219" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="220" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="221" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="222" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="223" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="224" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="225" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="226" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="227" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="228" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="229" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="230" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="231" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="232" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="233" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="234" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="235" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="236" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="237" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="238" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="239" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="240" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="241" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="242" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="243" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="244" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="245" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="246" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="247" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="248" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="249" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="250" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="251" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="252" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="253" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="254" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="255" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="256" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="257" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="258" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="259" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="260" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="261" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="262" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="263" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="264" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="265" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="266" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="267" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="268" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="269" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="270" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="271" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="272" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="273" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="274" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="275" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="276" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="277" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="278" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="279" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="280" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="281" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="282" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="283" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="284" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="285" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="286" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="287" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="288" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="289" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="290" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="291" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="292" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="293" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="294" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="295" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="296" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="297" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="298" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="299" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="300" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="301" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="302" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="303" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="304" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="305" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="306" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="307" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="308" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="309" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="310" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="311" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="312" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="313" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="314" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="315" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="316" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="317" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="318" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="319" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="320" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="321" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="322" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="323" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="324" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="325" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="326" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="327" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF327" s="2"/>
     </row>
-    <row r="328" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="328" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF328" s="2"/>
     </row>
-    <row r="329" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="329" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF329" s="2"/>
     </row>
-    <row r="330" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="330" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF330" s="2"/>
     </row>
-    <row r="331" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="331" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF331" s="2"/>
     </row>
-    <row r="332" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="332" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF332" s="2"/>
     </row>
-    <row r="333" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="333" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF333" s="2"/>
     </row>
-    <row r="334" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="334" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF334" s="2"/>
     </row>
-    <row r="335" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="335" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF335" s="2"/>
     </row>
-    <row r="336" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="336" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF336" s="2"/>
     </row>
-    <row r="337" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="337" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF337" s="2"/>
     </row>
-    <row r="338" spans="32:32" x14ac:dyDescent="0.35">
+    <row r="338" spans="32:32" x14ac:dyDescent="0.3">
       <c r="AF338" s="2"/>
     </row>
   </sheetData>
@@ -10543,124 +10046,124 @@
     <mergeCell ref="AE2:AK2"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:HC4">
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="16" priority="50">
       <formula>L$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:HC43 AD44:AD50 N102 AD62:AD78 T85:T102 R79:R102 P102">
-    <cfRule type="expression" dxfId="7" priority="42">
+    <cfRule type="expression" dxfId="15" priority="42">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="43">
+    <cfRule type="expression" dxfId="14" priority="43">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="44">
+    <cfRule type="expression" dxfId="13" priority="44">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="45">
+    <cfRule type="expression" dxfId="12" priority="45">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="11" priority="46">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>L$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48">
+    <cfRule type="expression" dxfId="9" priority="48">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="49">
+    <cfRule type="expression" dxfId="8" priority="49">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V61:V77">
-    <cfRule type="expression" dxfId="47" priority="33">
+    <cfRule type="expression" dxfId="7" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="34">
+    <cfRule type="expression" dxfId="6" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="5" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="3" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="2" priority="38">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1:E1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1:E1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="L2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="L2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="N2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="N2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="T2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="T2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="Y2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="AD2" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="AD2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AL2" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AL2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="L3" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="L3">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="F3:F4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="G3:G4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="H3:H4" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="H3:H4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="I3:I4" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="I3:I4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="J3:J4" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="J3:J4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="K3:K4" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="K3:K4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="F1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="F1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="F2:J2" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="F2:J2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
